--- a/salarios2004.xlsx
+++ b/salarios2004.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2B536-EDFB-471D-88F1-AF39302C8936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA30F178-AEF5-4F0A-A7E7-EB43E4C2C029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{51F5BD0D-79AA-41A6-B6A3-513F3B96E80C}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Puestos!$A$1:$Q$203</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30451,7 +30451,7 @@
   <dimension ref="A1:Q307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
